--- a/server/generated_data.xlsx
+++ b/server/generated_data.xlsx
@@ -463,76 +463,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7-R1</t>
+          <t>2-R1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7-R1_01</t>
+          <t>2-R1_01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>255,0,0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7-R1</t>
+          <t>2-R1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7-R1_02</t>
+          <t>2-R1_02</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>0,255,0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7-R1</t>
+          <t>2-R1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7-R1_03</t>
+          <t>2-R1_03</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,103 +544,103 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7-R1</t>
+          <t>2-R1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7-R1_04</t>
+          <t>2-R1_04</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>255,255,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7-R2</t>
+          <t>2-R2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7-R2_01</t>
+          <t>2-R2_01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>255,0,0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7-R2</t>
+          <t>2-R2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7-R2_02</t>
+          <t>2-R2_02</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>0,255,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7-R2</t>
+          <t>2-R2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7-R2_03</t>
+          <t>2-R2_03</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -652,103 +652,103 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7-R2</t>
+          <t>2-R2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7-R2_04</t>
+          <t>2-R2_04</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>255,255,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7-R3</t>
+          <t>2-R3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7-R3_01</t>
+          <t>2-R3_01</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>255,0,0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7-R3</t>
+          <t>2-R3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7-R3_02</t>
+          <t>2-R3_02</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>0,255,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7-R3</t>
+          <t>2-R3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>7-R3_03</t>
+          <t>2-R3_03</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -760,103 +760,103 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7-R3</t>
+          <t>2-R3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7-R3_04</t>
+          <t>2-R3_04</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>255,255,0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7-R4</t>
+          <t>2-R4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>7-R4_01</t>
+          <t>2-R4_01</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>255,0,0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7-R4</t>
+          <t>2-R4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>7-R4_02</t>
+          <t>2-R4_02</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>0,255,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7-R4</t>
+          <t>2-R4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>7-R4_03</t>
+          <t>2-R4_03</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -868,103 +868,103 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7-R4</t>
+          <t>2-R4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7-R4_04</t>
+          <t>2-R4_04</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>255,255,0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7-R5</t>
+          <t>2-R5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7-R5_01</t>
+          <t>2-R5_01</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>255,0,0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7-R5</t>
+          <t>2-R5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7-R5_02</t>
+          <t>2-R5_02</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>0,255,0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7-R5</t>
+          <t>2-R5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>7-R5_03</t>
+          <t>2-R5_03</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -976,103 +976,103 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7-R5</t>
+          <t>2-R5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>7-R5_04</t>
+          <t>2-R5_04</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>255,255,0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7-R6</t>
+          <t>2-R6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>7-R6_01</t>
+          <t>2-R6_01</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>255,0,0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7-R6</t>
+          <t>2-R6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7-R6_02</t>
+          <t>2-R6_02</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>0,255,0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7-R6</t>
+          <t>2-R6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>7-R6_03</t>
+          <t>2-R6_03</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1084,103 +1084,103 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7-R6</t>
+          <t>2-R6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>7-R6_04</t>
+          <t>2-R6_04</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>255,255,0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7-R7</t>
+          <t>2-R7</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7-R7_01</t>
+          <t>2-R7_01</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>255,0,0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7-R7</t>
+          <t>2-R7</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>7-R7_02</t>
+          <t>2-R7_02</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>0,255,0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7-R7</t>
+          <t>2-R7</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>7-R7_03</t>
+          <t>2-R7_03</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1192,103 +1192,103 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7-R7</t>
+          <t>2-R7</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>7-R7_04</t>
+          <t>2-R7_04</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>255,255,0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7-R8</t>
+          <t>2-R8</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>7-R8_01</t>
+          <t>2-R8_01</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>255,0,0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7-R8</t>
+          <t>2-R8</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>7-R8_02</t>
+          <t>2-R8_02</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>0,255,0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7-R8</t>
+          <t>2-R8</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>7-R8_03</t>
+          <t>2-R8_03</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1300,103 +1300,103 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7-R8</t>
+          <t>2-R8</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>7-R8_04</t>
+          <t>2-R8_04</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>255,255,0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7-R9</t>
+          <t>2-R9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>7-R9_01</t>
+          <t>2-R9_01</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>255,0,0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7-R9</t>
+          <t>2-R9</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>7-R9_02</t>
+          <t>2-R9_02</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>0,255,0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7-R9</t>
+          <t>2-R9</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>7-R9_03</t>
+          <t>2-R9_03</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1408,27 +1408,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>STA-7</t>
+          <t>STA-2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7-R9</t>
+          <t>2-R9</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>7-R9_04</t>
+          <t>2-R9_04</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0,0,255</t>
+          <t>255,255,0</t>
         </is>
       </c>
     </row>
